--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
@@ -544,7 +544,7 @@
         <xdr:cNvPr id="13" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -603,7 +603,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -662,7 +662,7 @@
         <xdr:cNvPr id="15" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -721,7 +721,7 @@
         <xdr:cNvPr id="17" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -780,7 +780,7 @@
         <xdr:cNvPr id="18" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
         <xdr:cNvPr id="19" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -898,7 +898,7 @@
         <xdr:cNvPr id="56" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,7 +957,7 @@
         <xdr:cNvPr id="57" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -44601,9 +44601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="12"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
@@ -79,7 +79,7 @@
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$I$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$I$39</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[9]!QuitDaicho</definedName>
     <definedName name="SE単価">[8]明細合計!#REF!</definedName>
@@ -344,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -375,6 +375,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -544,7 +553,7 @@
         <xdr:cNvPr id="13" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -603,7 +612,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -662,7 +671,7 @@
         <xdr:cNvPr id="15" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -721,7 +730,7 @@
         <xdr:cNvPr id="17" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -780,7 +789,7 @@
         <xdr:cNvPr id="18" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +848,7 @@
         <xdr:cNvPr id="19" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -898,7 +907,7 @@
         <xdr:cNvPr id="56" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,7 +966,7 @@
         <xdr:cNvPr id="57" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6719,8 +6728,8 @@
           <cell r="Z5" t="str">
             <v>AC</v>
           </cell>
-          <cell r="AA5" t="str">
-            <v/>
+          <cell r="AA5">
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
@@ -6769,8 +6778,8 @@
           <cell r="Z6" t="str">
             <v>AC</v>
           </cell>
-          <cell r="AA6" t="str">
-            <v/>
+          <cell r="AA6">
+            <v>0</v>
           </cell>
         </row>
         <row r="7">
@@ -6869,8 +6878,8 @@
           <cell r="Z8" t="str">
             <v>AC</v>
           </cell>
-          <cell r="AA8" t="str">
-            <v/>
+          <cell r="AA8">
+            <v>0</v>
           </cell>
         </row>
         <row r="9">
@@ -6919,8 +6928,8 @@
           <cell r="Z9" t="str">
             <v>AC</v>
           </cell>
-          <cell r="AA9" t="str">
-            <v/>
+          <cell r="AA9">
+            <v>0</v>
           </cell>
         </row>
         <row r="10">
@@ -6969,8 +6978,8 @@
           <cell r="Z10" t="str">
             <v>AC</v>
           </cell>
-          <cell r="AA10" t="str">
-            <v/>
+          <cell r="AA10">
+            <v>0</v>
           </cell>
         </row>
         <row r="11">
@@ -7019,8 +7028,8 @@
           <cell r="Z11" t="str">
             <v>AC</v>
           </cell>
-          <cell r="AA11" t="str">
-            <v/>
+          <cell r="AA11">
+            <v>0</v>
           </cell>
         </row>
         <row r="12">
@@ -7069,8 +7078,8 @@
           <cell r="Z12" t="str">
             <v>AC</v>
           </cell>
-          <cell r="AA12" t="str">
-            <v/>
+          <cell r="AA12">
+            <v>0</v>
           </cell>
         </row>
         <row r="13">
@@ -7169,8 +7178,8 @@
           <cell r="Z14" t="str">
             <v>MC</v>
           </cell>
-          <cell r="AA14" t="str">
-            <v/>
+          <cell r="AA14">
+            <v>0</v>
           </cell>
         </row>
         <row r="15">
@@ -7219,8 +7228,8 @@
           <cell r="Z15" t="str">
             <v>MC</v>
           </cell>
-          <cell r="AA15" t="str">
-            <v/>
+          <cell r="AA15">
+            <v>0</v>
           </cell>
         </row>
         <row r="16">
@@ -7245,11 +7254,11 @@
           <cell r="L16">
             <v>60000</v>
           </cell>
-          <cell r="N16" t="str">
-            <v/>
-          </cell>
-          <cell r="P16" t="str">
-            <v/>
+          <cell r="N16">
+            <v>0</v>
+          </cell>
+          <cell r="P16">
+            <v>0</v>
           </cell>
           <cell r="R16">
             <v>421200</v>
@@ -7263,16 +7272,16 @@
           <cell r="X16">
             <v>0</v>
           </cell>
-          <cell r="Z16" t="str">
-            <v/>
-          </cell>
-          <cell r="AA16" t="str">
-            <v/>
+          <cell r="Z16">
+            <v>0</v>
+          </cell>
+          <cell r="AA16">
+            <v>0</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="D17" t="str">
-            <v/>
+          <cell r="D17">
+            <v>0</v>
           </cell>
           <cell r="E17" t="str">
             <v>ﾌﾟﾘﾝﾀｹｰﾌﾞﾙ</v>
@@ -7292,11 +7301,11 @@
           <cell r="L17">
             <v>0</v>
           </cell>
-          <cell r="N17" t="str">
-            <v/>
-          </cell>
-          <cell r="P17" t="str">
-            <v/>
+          <cell r="N17">
+            <v>0</v>
+          </cell>
+          <cell r="P17">
+            <v>0</v>
           </cell>
           <cell r="R17">
             <v>1300</v>
@@ -7310,22 +7319,22 @@
           <cell r="X17">
             <v>0</v>
           </cell>
-          <cell r="Z17" t="str">
-            <v/>
-          </cell>
-          <cell r="AA17" t="str">
-            <v/>
+          <cell r="Z17">
+            <v>0</v>
+          </cell>
+          <cell r="AA17">
+            <v>0</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="D18" t="str">
-            <v/>
+          <cell r="D18">
+            <v>0</v>
           </cell>
           <cell r="E18" t="str">
             <v>ハンディターミナル  ＢＨＴ－６０００（１ＭＢ）</v>
           </cell>
-          <cell r="F18" t="str">
-            <v/>
+          <cell r="F18">
+            <v>0</v>
           </cell>
           <cell r="G18">
             <v>6</v>
@@ -7339,11 +7348,11 @@
           <cell r="L18">
             <v>0</v>
           </cell>
-          <cell r="N18" t="str">
-            <v/>
-          </cell>
-          <cell r="P18" t="str">
-            <v/>
+          <cell r="N18">
+            <v>0</v>
+          </cell>
+          <cell r="P18">
+            <v>0</v>
           </cell>
           <cell r="R18">
             <v>138600</v>
@@ -7357,22 +7366,22 @@
           <cell r="X18">
             <v>0</v>
           </cell>
-          <cell r="Z18" t="str">
-            <v/>
-          </cell>
-          <cell r="AA18" t="str">
-            <v/>
+          <cell r="Z18">
+            <v>0</v>
+          </cell>
+          <cell r="AA18">
+            <v>0</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="D19" t="str">
-            <v/>
+          <cell r="D19">
+            <v>0</v>
           </cell>
           <cell r="E19" t="str">
             <v>光通信ユニット</v>
           </cell>
-          <cell r="F19" t="str">
-            <v/>
+          <cell r="F19">
+            <v>0</v>
           </cell>
           <cell r="G19">
             <v>2</v>
@@ -7386,11 +7395,11 @@
           <cell r="L19">
             <v>0</v>
           </cell>
-          <cell r="N19" t="str">
-            <v/>
-          </cell>
-          <cell r="P19" t="str">
-            <v/>
+          <cell r="N19">
+            <v>0</v>
+          </cell>
+          <cell r="P19">
+            <v>0</v>
           </cell>
           <cell r="R19">
             <v>46000</v>
@@ -7404,22 +7413,22 @@
           <cell r="X19">
             <v>0</v>
           </cell>
-          <cell r="Z19" t="str">
-            <v/>
-          </cell>
-          <cell r="AA19" t="str">
-            <v/>
+          <cell r="Z19">
+            <v>0</v>
+          </cell>
+          <cell r="AA19">
+            <v>0</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="D20" t="str">
-            <v/>
+          <cell r="D20">
+            <v>0</v>
           </cell>
           <cell r="E20" t="str">
             <v>ＮｉＭＨバッテリーパック</v>
           </cell>
-          <cell r="F20" t="str">
-            <v/>
+          <cell r="F20">
+            <v>0</v>
           </cell>
           <cell r="G20">
             <v>6</v>
@@ -7433,11 +7442,11 @@
           <cell r="L20">
             <v>0</v>
           </cell>
-          <cell r="N20" t="str">
-            <v/>
-          </cell>
-          <cell r="P20" t="str">
-            <v/>
+          <cell r="N20">
+            <v>0</v>
+          </cell>
+          <cell r="P20">
+            <v>0</v>
           </cell>
           <cell r="R20">
             <v>6000</v>
@@ -7451,22 +7460,22 @@
           <cell r="X20">
             <v>0</v>
           </cell>
-          <cell r="Z20" t="str">
-            <v/>
-          </cell>
-          <cell r="AA20" t="str">
-            <v/>
+          <cell r="Z20">
+            <v>0</v>
+          </cell>
+          <cell r="AA20">
+            <v>0</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="D21" t="str">
-            <v/>
+          <cell r="D21">
+            <v>0</v>
           </cell>
           <cell r="E21" t="str">
             <v>ＲＳ２３２Ｃケーブル</v>
           </cell>
-          <cell r="F21" t="str">
-            <v/>
+          <cell r="F21">
+            <v>0</v>
           </cell>
           <cell r="G21">
             <v>2</v>
@@ -7480,11 +7489,11 @@
           <cell r="L21">
             <v>0</v>
           </cell>
-          <cell r="N21" t="str">
-            <v/>
-          </cell>
-          <cell r="P21" t="str">
-            <v/>
+          <cell r="N21">
+            <v>0</v>
+          </cell>
+          <cell r="P21">
+            <v>0</v>
           </cell>
           <cell r="R21">
             <v>9000</v>
@@ -7498,22 +7507,22 @@
           <cell r="X21">
             <v>0</v>
           </cell>
-          <cell r="Z21" t="str">
-            <v/>
-          </cell>
-          <cell r="AA21" t="str">
-            <v/>
+          <cell r="Z21">
+            <v>0</v>
+          </cell>
+          <cell r="AA21">
+            <v>0</v>
           </cell>
         </row>
         <row r="22">
-          <cell r="D22" t="str">
-            <v/>
+          <cell r="D22">
+            <v>0</v>
           </cell>
           <cell r="E22" t="str">
             <v>ＣＵ転送ユーティリティ</v>
           </cell>
-          <cell r="F22" t="str">
-            <v/>
+          <cell r="F22">
+            <v>0</v>
           </cell>
           <cell r="G22">
             <v>1</v>
@@ -7527,11 +7536,11 @@
           <cell r="L22">
             <v>0</v>
           </cell>
-          <cell r="N22" t="str">
-            <v/>
-          </cell>
-          <cell r="P22" t="str">
-            <v/>
+          <cell r="N22">
+            <v>0</v>
+          </cell>
+          <cell r="P22">
+            <v>0</v>
           </cell>
           <cell r="R22">
             <v>35000</v>
@@ -7545,22 +7554,22 @@
           <cell r="X22">
             <v>0</v>
           </cell>
-          <cell r="Z22" t="str">
-            <v/>
-          </cell>
-          <cell r="AA22" t="str">
-            <v/>
+          <cell r="Z22">
+            <v>0</v>
+          </cell>
+          <cell r="AA22">
+            <v>0</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="D23" t="str">
-            <v/>
+          <cell r="D23">
+            <v>0</v>
           </cell>
           <cell r="E23" t="str">
             <v>ＢＨＴ－ＢＡＳＩＣ３，１</v>
           </cell>
-          <cell r="F23" t="str">
-            <v/>
+          <cell r="F23">
+            <v>0</v>
           </cell>
           <cell r="G23">
             <v>1</v>
@@ -7574,11 +7583,11 @@
           <cell r="L23">
             <v>0</v>
           </cell>
-          <cell r="N23" t="str">
-            <v/>
-          </cell>
-          <cell r="P23" t="str">
-            <v/>
+          <cell r="N23">
+            <v>0</v>
+          </cell>
+          <cell r="P23">
+            <v>0</v>
           </cell>
           <cell r="R23">
             <v>32000</v>
@@ -7592,22 +7601,22 @@
           <cell r="X23">
             <v>0</v>
           </cell>
-          <cell r="Z23" t="str">
-            <v/>
-          </cell>
-          <cell r="AA23" t="str">
-            <v/>
+          <cell r="Z23">
+            <v>0</v>
+          </cell>
+          <cell r="AA23">
+            <v>0</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="D24" t="str">
-            <v/>
+          <cell r="D24">
+            <v>0</v>
           </cell>
           <cell r="E24" t="str">
             <v>ＨＵＢ</v>
           </cell>
-          <cell r="F24" t="str">
-            <v/>
+          <cell r="F24">
+            <v>0</v>
           </cell>
           <cell r="G24">
             <v>3</v>
@@ -7621,11 +7630,11 @@
           <cell r="L24">
             <v>0</v>
           </cell>
-          <cell r="N24" t="str">
-            <v/>
-          </cell>
-          <cell r="P24" t="str">
-            <v/>
+          <cell r="N24">
+            <v>0</v>
+          </cell>
+          <cell r="P24">
+            <v>0</v>
           </cell>
           <cell r="R24">
             <v>11000</v>
@@ -7639,22 +7648,22 @@
           <cell r="X24">
             <v>0</v>
           </cell>
-          <cell r="Z24" t="str">
-            <v/>
-          </cell>
-          <cell r="AA24" t="str">
-            <v/>
+          <cell r="Z24">
+            <v>0</v>
+          </cell>
+          <cell r="AA24">
+            <v>0</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="D25" t="str">
-            <v/>
+          <cell r="D25">
+            <v>0</v>
           </cell>
           <cell r="E25" t="str">
             <v>10BASE-Tｹｰﾌﾞﾙ</v>
           </cell>
-          <cell r="F25" t="str">
-            <v/>
+          <cell r="F25">
+            <v>0</v>
           </cell>
           <cell r="G25">
             <v>10</v>
@@ -7668,11 +7677,11 @@
           <cell r="L25">
             <v>0</v>
           </cell>
-          <cell r="N25" t="str">
-            <v/>
-          </cell>
-          <cell r="P25" t="str">
-            <v/>
+          <cell r="N25">
+            <v>0</v>
+          </cell>
+          <cell r="P25">
+            <v>0</v>
           </cell>
           <cell r="R25">
             <v>3200</v>
@@ -7686,22 +7695,22 @@
           <cell r="X25">
             <v>0</v>
           </cell>
-          <cell r="Z25" t="str">
-            <v/>
-          </cell>
-          <cell r="AA25" t="str">
-            <v/>
+          <cell r="Z25">
+            <v>0</v>
+          </cell>
+          <cell r="AA25">
+            <v>0</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="D26" t="str">
-            <v/>
+          <cell r="D26">
+            <v>0</v>
           </cell>
           <cell r="E26" t="str">
             <v>Microsoft Office97</v>
           </cell>
-          <cell r="F26" t="str">
-            <v/>
+          <cell r="F26">
+            <v>0</v>
           </cell>
           <cell r="G26">
             <v>1</v>
@@ -7715,11 +7724,11 @@
           <cell r="L26">
             <v>0</v>
           </cell>
-          <cell r="N26" t="str">
-            <v/>
-          </cell>
-          <cell r="P26" t="str">
-            <v/>
+          <cell r="N26">
+            <v>0</v>
+          </cell>
+          <cell r="P26">
+            <v>0</v>
           </cell>
           <cell r="R26">
             <v>55000</v>
@@ -7733,22 +7742,22 @@
           <cell r="X26">
             <v>0</v>
           </cell>
-          <cell r="Z26" t="str">
-            <v/>
-          </cell>
-          <cell r="AA26" t="str">
-            <v/>
+          <cell r="Z26">
+            <v>0</v>
+          </cell>
+          <cell r="AA26">
+            <v>0</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="D27" t="str">
-            <v/>
+          <cell r="D27">
+            <v>0</v>
           </cell>
           <cell r="E27" t="str">
             <v>DATE NATURE２</v>
           </cell>
-          <cell r="F27" t="str">
-            <v/>
+          <cell r="F27">
+            <v>0</v>
           </cell>
           <cell r="G27">
             <v>2</v>
@@ -7762,11 +7771,11 @@
           <cell r="L27">
             <v>0</v>
           </cell>
-          <cell r="N27" t="str">
-            <v/>
-          </cell>
-          <cell r="P27" t="str">
-            <v/>
+          <cell r="N27">
+            <v>0</v>
+          </cell>
+          <cell r="P27">
+            <v>0</v>
           </cell>
           <cell r="R27">
             <v>39800</v>
@@ -7780,43 +7789,43 @@
           <cell r="X27">
             <v>0</v>
           </cell>
-          <cell r="Z27" t="str">
-            <v/>
-          </cell>
-          <cell r="AA27" t="str">
-            <v/>
+          <cell r="Z27">
+            <v>0</v>
+          </cell>
+          <cell r="AA27">
+            <v>0</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="D28" t="str">
-            <v/>
-          </cell>
-          <cell r="E28" t="str">
-            <v/>
-          </cell>
-          <cell r="F28" t="str">
-            <v/>
-          </cell>
-          <cell r="G28" t="str">
-            <v/>
-          </cell>
-          <cell r="H28" t="str">
-            <v/>
+          <cell r="D28">
+            <v>0</v>
+          </cell>
+          <cell r="E28">
+            <v>0</v>
+          </cell>
+          <cell r="F28">
+            <v>0</v>
+          </cell>
+          <cell r="G28">
+            <v>0</v>
+          </cell>
+          <cell r="H28">
+            <v>0</v>
           </cell>
           <cell r="J28">
             <v>0</v>
           </cell>
-          <cell r="L28" t="str">
-            <v/>
-          </cell>
-          <cell r="N28" t="str">
-            <v/>
-          </cell>
-          <cell r="P28" t="str">
-            <v/>
-          </cell>
-          <cell r="R28" t="str">
-            <v/>
+          <cell r="L28">
+            <v>0</v>
+          </cell>
+          <cell r="N28">
+            <v>0</v>
+          </cell>
+          <cell r="P28">
+            <v>0</v>
+          </cell>
+          <cell r="R28">
+            <v>0</v>
           </cell>
           <cell r="T28">
             <v>0</v>
@@ -7827,43 +7836,43 @@
           <cell r="X28">
             <v>0</v>
           </cell>
-          <cell r="Z28" t="str">
-            <v/>
-          </cell>
-          <cell r="AA28" t="str">
-            <v/>
+          <cell r="Z28">
+            <v>0</v>
+          </cell>
+          <cell r="AA28">
+            <v>0</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="D29" t="str">
-            <v/>
-          </cell>
-          <cell r="E29" t="str">
-            <v/>
-          </cell>
-          <cell r="F29" t="str">
-            <v/>
-          </cell>
-          <cell r="G29" t="str">
-            <v/>
-          </cell>
-          <cell r="H29" t="str">
-            <v/>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+          <cell r="E29">
+            <v>0</v>
+          </cell>
+          <cell r="F29">
+            <v>0</v>
+          </cell>
+          <cell r="G29">
+            <v>0</v>
+          </cell>
+          <cell r="H29">
+            <v>0</v>
           </cell>
           <cell r="J29">
             <v>0</v>
           </cell>
-          <cell r="L29" t="str">
-            <v/>
-          </cell>
-          <cell r="N29" t="str">
-            <v/>
-          </cell>
-          <cell r="P29" t="str">
-            <v/>
-          </cell>
-          <cell r="R29" t="str">
-            <v/>
+          <cell r="L29">
+            <v>0</v>
+          </cell>
+          <cell r="N29">
+            <v>0</v>
+          </cell>
+          <cell r="P29">
+            <v>0</v>
+          </cell>
+          <cell r="R29">
+            <v>0</v>
           </cell>
           <cell r="T29">
             <v>0</v>
@@ -7874,43 +7883,43 @@
           <cell r="X29">
             <v>0</v>
           </cell>
-          <cell r="Z29" t="str">
-            <v/>
-          </cell>
-          <cell r="AA29" t="str">
-            <v/>
+          <cell r="Z29">
+            <v>0</v>
+          </cell>
+          <cell r="AA29">
+            <v>0</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="D30" t="str">
-            <v/>
-          </cell>
-          <cell r="E30" t="str">
-            <v/>
-          </cell>
-          <cell r="F30" t="str">
-            <v/>
-          </cell>
-          <cell r="G30" t="str">
-            <v/>
-          </cell>
-          <cell r="H30" t="str">
-            <v/>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>0</v>
+          </cell>
+          <cell r="G30">
+            <v>0</v>
+          </cell>
+          <cell r="H30">
+            <v>0</v>
           </cell>
           <cell r="J30">
             <v>0</v>
           </cell>
-          <cell r="L30" t="str">
-            <v/>
-          </cell>
-          <cell r="N30" t="str">
-            <v/>
-          </cell>
-          <cell r="P30" t="str">
-            <v/>
-          </cell>
-          <cell r="R30" t="str">
-            <v/>
+          <cell r="L30">
+            <v>0</v>
+          </cell>
+          <cell r="N30">
+            <v>0</v>
+          </cell>
+          <cell r="P30">
+            <v>0</v>
+          </cell>
+          <cell r="R30">
+            <v>0</v>
           </cell>
           <cell r="T30">
             <v>0</v>
@@ -7921,43 +7930,43 @@
           <cell r="X30">
             <v>0</v>
           </cell>
-          <cell r="Z30" t="str">
-            <v/>
-          </cell>
-          <cell r="AA30" t="str">
-            <v/>
+          <cell r="Z30">
+            <v>0</v>
+          </cell>
+          <cell r="AA30">
+            <v>0</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="D31" t="str">
-            <v/>
-          </cell>
-          <cell r="E31" t="str">
-            <v/>
-          </cell>
-          <cell r="F31" t="str">
-            <v/>
-          </cell>
-          <cell r="G31" t="str">
-            <v/>
-          </cell>
-          <cell r="H31" t="str">
-            <v/>
+          <cell r="D31">
+            <v>0</v>
+          </cell>
+          <cell r="E31">
+            <v>0</v>
+          </cell>
+          <cell r="F31">
+            <v>0</v>
+          </cell>
+          <cell r="G31">
+            <v>0</v>
+          </cell>
+          <cell r="H31">
+            <v>0</v>
           </cell>
           <cell r="J31">
             <v>0</v>
           </cell>
-          <cell r="L31" t="str">
-            <v/>
-          </cell>
-          <cell r="N31" t="str">
-            <v/>
-          </cell>
-          <cell r="P31" t="str">
-            <v/>
-          </cell>
-          <cell r="R31" t="str">
-            <v/>
+          <cell r="L31">
+            <v>0</v>
+          </cell>
+          <cell r="N31">
+            <v>0</v>
+          </cell>
+          <cell r="P31">
+            <v>0</v>
+          </cell>
+          <cell r="R31">
+            <v>0</v>
           </cell>
           <cell r="T31">
             <v>0</v>
@@ -7968,43 +7977,43 @@
           <cell r="X31">
             <v>0</v>
           </cell>
-          <cell r="Z31" t="str">
-            <v/>
-          </cell>
-          <cell r="AA31" t="str">
-            <v/>
+          <cell r="Z31">
+            <v>0</v>
+          </cell>
+          <cell r="AA31">
+            <v>0</v>
           </cell>
         </row>
         <row r="32">
-          <cell r="D32" t="str">
-            <v/>
-          </cell>
-          <cell r="E32" t="str">
-            <v/>
-          </cell>
-          <cell r="F32" t="str">
-            <v/>
-          </cell>
-          <cell r="G32" t="str">
-            <v/>
-          </cell>
-          <cell r="H32" t="str">
-            <v/>
+          <cell r="D32">
+            <v>0</v>
+          </cell>
+          <cell r="E32">
+            <v>0</v>
+          </cell>
+          <cell r="F32">
+            <v>0</v>
+          </cell>
+          <cell r="G32">
+            <v>0</v>
+          </cell>
+          <cell r="H32">
+            <v>0</v>
           </cell>
           <cell r="J32">
             <v>0</v>
           </cell>
-          <cell r="L32" t="str">
-            <v/>
-          </cell>
-          <cell r="N32" t="str">
-            <v/>
-          </cell>
-          <cell r="P32" t="str">
-            <v/>
-          </cell>
-          <cell r="R32" t="str">
-            <v/>
+          <cell r="L32">
+            <v>0</v>
+          </cell>
+          <cell r="N32">
+            <v>0</v>
+          </cell>
+          <cell r="P32">
+            <v>0</v>
+          </cell>
+          <cell r="R32">
+            <v>0</v>
           </cell>
           <cell r="T32">
             <v>0</v>
@@ -8015,43 +8024,43 @@
           <cell r="X32">
             <v>0</v>
           </cell>
-          <cell r="Z32" t="str">
-            <v/>
-          </cell>
-          <cell r="AA32" t="str">
-            <v/>
+          <cell r="Z32">
+            <v>0</v>
+          </cell>
+          <cell r="AA32">
+            <v>0</v>
           </cell>
         </row>
         <row r="33">
-          <cell r="D33" t="str">
-            <v/>
-          </cell>
-          <cell r="E33" t="str">
-            <v/>
-          </cell>
-          <cell r="F33" t="str">
-            <v/>
-          </cell>
-          <cell r="G33" t="str">
-            <v/>
-          </cell>
-          <cell r="H33" t="str">
-            <v/>
+          <cell r="D33">
+            <v>0</v>
+          </cell>
+          <cell r="E33">
+            <v>0</v>
+          </cell>
+          <cell r="F33">
+            <v>0</v>
+          </cell>
+          <cell r="G33">
+            <v>0</v>
+          </cell>
+          <cell r="H33">
+            <v>0</v>
           </cell>
           <cell r="J33">
             <v>0</v>
           </cell>
-          <cell r="L33" t="str">
-            <v/>
-          </cell>
-          <cell r="N33" t="str">
-            <v/>
-          </cell>
-          <cell r="P33" t="str">
-            <v/>
-          </cell>
-          <cell r="R33" t="str">
-            <v/>
+          <cell r="L33">
+            <v>0</v>
+          </cell>
+          <cell r="N33">
+            <v>0</v>
+          </cell>
+          <cell r="P33">
+            <v>0</v>
+          </cell>
+          <cell r="R33">
+            <v>0</v>
           </cell>
           <cell r="T33">
             <v>0</v>
@@ -8062,43 +8071,43 @@
           <cell r="X33">
             <v>0</v>
           </cell>
-          <cell r="Z33" t="str">
-            <v/>
-          </cell>
-          <cell r="AA33" t="str">
-            <v/>
+          <cell r="Z33">
+            <v>0</v>
+          </cell>
+          <cell r="AA33">
+            <v>0</v>
           </cell>
         </row>
         <row r="34">
-          <cell r="D34" t="str">
-            <v/>
-          </cell>
-          <cell r="E34" t="str">
-            <v/>
-          </cell>
-          <cell r="F34" t="str">
-            <v/>
-          </cell>
-          <cell r="G34" t="str">
-            <v/>
-          </cell>
-          <cell r="H34" t="str">
-            <v/>
+          <cell r="D34">
+            <v>0</v>
+          </cell>
+          <cell r="E34">
+            <v>0</v>
+          </cell>
+          <cell r="F34">
+            <v>0</v>
+          </cell>
+          <cell r="G34">
+            <v>0</v>
+          </cell>
+          <cell r="H34">
+            <v>0</v>
           </cell>
           <cell r="J34">
             <v>0</v>
           </cell>
-          <cell r="L34" t="str">
-            <v/>
-          </cell>
-          <cell r="N34" t="str">
-            <v/>
-          </cell>
-          <cell r="P34" t="str">
-            <v/>
-          </cell>
-          <cell r="R34" t="str">
-            <v/>
+          <cell r="L34">
+            <v>0</v>
+          </cell>
+          <cell r="N34">
+            <v>0</v>
+          </cell>
+          <cell r="P34">
+            <v>0</v>
+          </cell>
+          <cell r="R34">
+            <v>0</v>
           </cell>
           <cell r="T34">
             <v>0</v>
@@ -8109,11 +8118,11 @@
           <cell r="X34">
             <v>0</v>
           </cell>
-          <cell r="Z34" t="str">
-            <v/>
-          </cell>
-          <cell r="AA34" t="str">
-            <v/>
+          <cell r="Z34">
+            <v>0</v>
+          </cell>
+          <cell r="AA34">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -44608,11 +44617,11 @@
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="13" customWidth="1"/>
     <col min="9" max="9" width="1.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="10.5703125" style="1"/>
@@ -44685,7 +44694,7 @@
       <c r="D8" s="7"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="13.9" customHeight="1">
       <c r="B9" s="2"/>
@@ -44701,7 +44710,7 @@
       <c r="D10" s="7"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:8" ht="13.9" customHeight="1">
       <c r="B11" s="2"/>
@@ -44709,7 +44718,7 @@
       <c r="D11" s="4"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="2:8" ht="13.9" customHeight="1">
       <c r="B12" s="5"/>
@@ -44717,7 +44726,7 @@
       <c r="D12" s="7"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="13.9" customHeight="1">
       <c r="B13" s="2"/>
@@ -44725,7 +44734,7 @@
       <c r="D13" s="4"/>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8" ht="13.9" customHeight="1">
       <c r="B14" s="5"/>
@@ -44733,7 +44742,7 @@
       <c r="D14" s="7"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="2:8" ht="13.9" customHeight="1">
       <c r="B15" s="2"/>
@@ -44741,7 +44750,7 @@
       <c r="D15" s="4"/>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:8" ht="13.9" customHeight="1">
       <c r="B16" s="5"/>
@@ -44749,7 +44758,7 @@
       <c r="D16" s="7"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:8" ht="13.9" customHeight="1">
       <c r="B17" s="2"/>
@@ -44757,7 +44766,7 @@
       <c r="D17" s="4"/>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="2:8" ht="13.9" customHeight="1">
       <c r="B18" s="5"/>
@@ -44765,7 +44774,7 @@
       <c r="D18" s="7"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" ht="13.9" customHeight="1">
       <c r="B19" s="2"/>
@@ -44773,7 +44782,7 @@
       <c r="D19" s="4"/>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" ht="13.9" customHeight="1">
       <c r="B20" s="5"/>
@@ -44781,7 +44790,7 @@
       <c r="D20" s="7"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:8" ht="13.9" customHeight="1">
       <c r="B21" s="2"/>
@@ -44789,7 +44798,7 @@
       <c r="D21" s="4"/>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:8" ht="13.9" customHeight="1">
       <c r="B22" s="5"/>
@@ -44797,7 +44806,7 @@
       <c r="D22" s="7"/>
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="2:8" ht="13.9" customHeight="1">
       <c r="B23" s="2"/>
@@ -44805,7 +44814,7 @@
       <c r="D23" s="4"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="2:8" ht="13.9" customHeight="1">
       <c r="B24" s="5"/>
@@ -44813,7 +44822,7 @@
       <c r="D24" s="7"/>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" ht="13.9" customHeight="1">
       <c r="B25" s="2"/>
@@ -44821,7 +44830,7 @@
       <c r="D25" s="4"/>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="2:8" ht="13.9" customHeight="1">
       <c r="B26" s="5"/>
@@ -44829,7 +44838,7 @@
       <c r="D26" s="7"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:8" ht="13.9" customHeight="1">
       <c r="B27" s="2"/>
@@ -44837,7 +44846,7 @@
       <c r="D27" s="4"/>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="2:8" ht="13.9" customHeight="1">
       <c r="B28" s="5"/>
@@ -44845,7 +44854,7 @@
       <c r="D28" s="7"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="2:8" ht="13.9" customHeight="1">
       <c r="B29" s="2"/>
@@ -44853,7 +44862,7 @@
       <c r="D29" s="4"/>
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="2:8" ht="13.9" customHeight="1">
       <c r="B30" s="5"/>
@@ -44861,7 +44870,7 @@
       <c r="D30" s="7"/>
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="2:8" ht="13.9" customHeight="1">
       <c r="B31" s="2"/>
@@ -44869,7 +44878,7 @@
       <c r="D31" s="4"/>
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="2:8" ht="13.9" customHeight="1">
       <c r="B32" s="5"/>
@@ -44877,7 +44886,7 @@
       <c r="D32" s="7"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="2:8" ht="13.9" customHeight="1">
       <c r="B33" s="2"/>
@@ -44885,7 +44894,7 @@
       <c r="D33" s="4"/>
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="2:8" ht="13.9" customHeight="1">
       <c r="B34" s="5"/>
@@ -44893,7 +44902,7 @@
       <c r="D34" s="7"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="2:8" ht="13.5" customHeight="1">
       <c r="B35" s="2"/>
@@ -44901,7 +44910,7 @@
       <c r="D35" s="4"/>
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="2:8" ht="13.9" customHeight="1">
       <c r="B36" s="5"/>
@@ -44909,7 +44918,7 @@
       <c r="D36" s="7"/>
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="2:8" ht="13.9" customHeight="1">
       <c r="B37" s="2"/>
@@ -44917,7 +44926,7 @@
       <c r="D37" s="4"/>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="2:8" ht="13.9" customHeight="1">
       <c r="B38" s="5"/>
@@ -44925,7 +44934,7 @@
       <c r="D38" s="7"/>
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="2:8" ht="13.9" customHeight="1">
       <c r="E39" s="10"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
@@ -553,7 +553,7 @@
         <xdr:cNvPr id="13" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -612,7 +612,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -671,7 +671,7 @@
         <xdr:cNvPr id="15" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -730,7 +730,7 @@
         <xdr:cNvPr id="17" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -789,7 +789,7 @@
         <xdr:cNvPr id="18" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -848,7 +848,7 @@
         <xdr:cNvPr id="19" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -907,7 +907,7 @@
         <xdr:cNvPr id="56" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -966,7 +966,7 @@
         <xdr:cNvPr id="57" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -44610,7 +44610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="12"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="マスタリスト" sheetId="1" r:id="rId1"/>
+    <sheet name="マスタリスト" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -26,159 +26,281 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_Fill" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
+    <definedName name="_Key1" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
+    <definedName name="_Parse_In" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Parse_In" hidden="1">#REF!</definedName>
+    <definedName name="_Parse_Out" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Parse_Out" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
+    <definedName name="_Sort" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
+    <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_" localSheetId="0">#REF!</definedName>
     <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_">#REF!</definedName>
+    <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。" localSheetId="0">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
+    <definedName name="a" localSheetId="0">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="AAA" localSheetId="0">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
+    <definedName name="AAAA" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="AAAA" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
+    <definedName name="abc" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="ADD_COPY句">#N/A</definedName>
+    <definedName name="b" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="b" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
+    <definedName name="ｂｂｂ" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="ｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
+    <definedName name="ｂｂｂｂ" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="ｂｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="cal_index_size">[2]!cal_index_size</definedName>
     <definedName name="cal_table_size">[2]!cal_table_size</definedName>
+    <definedName name="ccc" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="ccc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
+    <definedName name="ｃｃｃｃ" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="ｃｃｃｃ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="CULC.cal_index_size">[3]!CULC.cal_index_size</definedName>
+    <definedName name="C保守単価" localSheetId="0">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守委託単価" localSheetId="0">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守支援単価" localSheetId="0">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="DDDD" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="DDDD" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
+    <definedName name="def" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
+    <definedName name="e" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="e" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
+    <definedName name="ｈｈｈ" localSheetId="0">#REF!</definedName>
     <definedName name="ｈｈｈ">#REF!</definedName>
     <definedName name="HW9707K">[5]仕切価格!$B$1:$BD$231</definedName>
+    <definedName name="ＩＨ" localSheetId="0">#REF!</definedName>
     <definedName name="ＩＨ">#REF!</definedName>
+    <definedName name="item1" localSheetId="0">#REF!</definedName>
     <definedName name="item1">#REF!</definedName>
+    <definedName name="Ｉホ" localSheetId="0">#REF!</definedName>
     <definedName name="Ｉホ">#REF!</definedName>
+    <definedName name="k" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="k" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
+    <definedName name="kkkk" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="kkkk" hidden="1">#REF!</definedName>
+    <definedName name="ｌ" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="ｌ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
+    <definedName name="ＬＨ" localSheetId="0">#REF!</definedName>
     <definedName name="ＬＨ">#REF!</definedName>
+    <definedName name="ＬサＨ" localSheetId="0">#REF!</definedName>
     <definedName name="ＬサＨ">#REF!</definedName>
+    <definedName name="Ｌサホ" localSheetId="0">#REF!</definedName>
     <definedName name="Ｌサホ">#REF!</definedName>
+    <definedName name="ＬニＨ" localSheetId="0">#REF!</definedName>
     <definedName name="ＬニＨ">#REF!</definedName>
+    <definedName name="Ｌニホ" localSheetId="0">#REF!</definedName>
     <definedName name="Ｌニホ">#REF!</definedName>
+    <definedName name="Ｌホ" localSheetId="0">#REF!</definedName>
     <definedName name="Ｌホ">#REF!</definedName>
+    <definedName name="ＭＨ" localSheetId="0">#REF!</definedName>
     <definedName name="ＭＨ">#REF!</definedName>
+    <definedName name="Ｍホ" localSheetId="0">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
+    <definedName name="ｎ" localSheetId="0">'[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="ｎ">'[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="ＯＨ" localSheetId="0">#REF!</definedName>
     <definedName name="ＯＨ">#REF!</definedName>
     <definedName name="OPT_NO">[7]!OPT_NO</definedName>
     <definedName name="OPT_YES">[7]!OPT_YES</definedName>
+    <definedName name="Ｏホ" localSheetId="0">#REF!</definedName>
     <definedName name="Ｏホ">#REF!</definedName>
+    <definedName name="PG単価" localSheetId="0">[8]明細合計!#REF!</definedName>
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
+    <definedName name="PG田中" localSheetId="0">#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$I$39</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[9]!QuitDaicho</definedName>
+    <definedName name="SE単価" localSheetId="0">[8]明細合計!#REF!</definedName>
     <definedName name="SE単価">[8]明細合計!#REF!</definedName>
+    <definedName name="sss" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="sss" hidden="1">#REF!</definedName>
+    <definedName name="SS単価" localSheetId="0">#REF!</definedName>
     <definedName name="SS単価">#REF!</definedName>
+    <definedName name="STEP概算" localSheetId="0">#REF!</definedName>
     <definedName name="STEP概算">#REF!</definedName>
+    <definedName name="ＳＷ" localSheetId="0">#REF!</definedName>
     <definedName name="ＳＷ">#REF!</definedName>
+    <definedName name="Ver002001006特休残管理対応" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="Ver002001006特休残管理対応" hidden="1">#REF!</definedName>
+    <definedName name="ｗ" localSheetId="0">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="ｗ">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="WC単価">'[4]見積明細(ハードのみ）'!$X$5:$X$34</definedName>
+    <definedName name="wrn.MIND." localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="wrn.MIND." hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
+    <definedName name="wrn.PRINT_ALL." localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="wrn.PRINT_ALL." hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
+    <definedName name="wrn.REPORT1." localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="wrn.REPORT1." hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
+    <definedName name="あ" localSheetId="0">#REF!</definedName>
     <definedName name="あ">#REF!</definedName>
+    <definedName name="あ１" localSheetId="0">#REF!</definedName>
     <definedName name="あ１">#REF!</definedName>
+    <definedName name="あああ" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="あああ" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
+    <definedName name="ああああああああああ" localSheetId="0">#REF!</definedName>
     <definedName name="ああああああああああ">#REF!</definedName>
+    <definedName name="い" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="い" hidden="1">#REF!</definedName>
+    <definedName name="クＨ" localSheetId="0">#REF!</definedName>
     <definedName name="クＨ">#REF!</definedName>
+    <definedName name="クサＨ" localSheetId="0">#REF!</definedName>
     <definedName name="クサＨ">#REF!</definedName>
+    <definedName name="クサホ" localSheetId="0">#REF!</definedName>
     <definedName name="クサホ">#REF!</definedName>
+    <definedName name="クにＨ" localSheetId="0">#REF!</definedName>
     <definedName name="クにＨ">#REF!</definedName>
+    <definedName name="クニホ" localSheetId="0">#REF!</definedName>
     <definedName name="クニホ">#REF!</definedName>
+    <definedName name="クホ" localSheetId="0">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
+    <definedName name="サＨ" localSheetId="0">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サＨ">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サホ" localSheetId="0">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サホ">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サホ1" localSheetId="0">#REF!</definedName>
     <definedName name="サホ1">#REF!</definedName>
+    <definedName name="ツール別見積工数" localSheetId="0">#REF!</definedName>
     <definedName name="ツール別見積工数">#REF!</definedName>
     <definedName name="テーブル項目">[11]項目定義書!$A$3:$E$364</definedName>
+    <definedName name="ハ１" localSheetId="0">#REF!</definedName>
     <definedName name="ハ１">#REF!</definedName>
+    <definedName name="は２" localSheetId="0">#REF!</definedName>
     <definedName name="は２">#REF!</definedName>
+    <definedName name="ハ２ホ" localSheetId="0">#REF!</definedName>
     <definedName name="ハ２ホ">#REF!</definedName>
+    <definedName name="は３" localSheetId="0">#REF!</definedName>
     <definedName name="は３">#REF!</definedName>
+    <definedName name="ハサホ" localSheetId="0">#REF!</definedName>
     <definedName name="ハサホ">#REF!</definedName>
+    <definedName name="ﾊﾞｽ･ﾀｸｼｰ" localSheetId="0">#REF!</definedName>
     <definedName name="ﾊﾞｽ･ﾀｸｼｰ">#REF!</definedName>
+    <definedName name="バックアップ" localSheetId="0">#REF!</definedName>
     <definedName name="バックアップ">#REF!</definedName>
+    <definedName name="ハホ" localSheetId="0">#REF!</definedName>
     <definedName name="ハホ">#REF!</definedName>
     <definedName name="ファイル展開">#N/A</definedName>
+    <definedName name="ヘッダー" localSheetId="0">#REF!</definedName>
     <definedName name="ヘッダー">#REF!</definedName>
+    <definedName name="ユーザー一覧" localSheetId="0">'[12]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
     <definedName name="ユーザー一覧">'[12]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
     <definedName name="ワイドに">[13]!ワイドに</definedName>
+    <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ" localSheetId="0">#REF!</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ">#REF!</definedName>
+    <definedName name="人日原価" localSheetId="0">#REF!</definedName>
     <definedName name="人日原価">#REF!</definedName>
     <definedName name="仕切り">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
     <definedName name="仕切単価">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="住民税115" localSheetId="0">#REF!</definedName>
     <definedName name="住民税115">#REF!</definedName>
+    <definedName name="住民税96" localSheetId="0">#REF!</definedName>
     <definedName name="住民税96">#REF!</definedName>
+    <definedName name="住民税納付先の登録7" localSheetId="0">#REF!</definedName>
     <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="価格表" localSheetId="0">#REF!</definedName>
     <definedName name="価格表">#REF!</definedName>
     <definedName name="保守単価">'[4]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
     <definedName name="保守委託単価">'[4]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
     <definedName name="保守支援単価">'[4]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
     <definedName name="値引単価">'[4]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
     <definedName name="備考">'[4]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
+    <definedName name="単価" localSheetId="0">#REF!</definedName>
     <definedName name="単価">#REF!</definedName>
+    <definedName name="単価種別" localSheetId="0">#REF!</definedName>
     <definedName name="単価種別">#REF!</definedName>
     <definedName name="印刷">[14]!印刷</definedName>
+    <definedName name="原価" localSheetId="0">#REF!</definedName>
     <definedName name="原価">#REF!</definedName>
+    <definedName name="売値" localSheetId="0">#REF!</definedName>
     <definedName name="売値">#REF!</definedName>
+    <definedName name="定価" localSheetId="0">#REF!</definedName>
     <definedName name="定価">#REF!</definedName>
+    <definedName name="宿泊" localSheetId="0">#REF!</definedName>
     <definedName name="宿泊">#REF!</definedName>
+    <definedName name="宿泊単金" localSheetId="0">#REF!</definedName>
     <definedName name="宿泊単金">#REF!</definedName>
+    <definedName name="工程別生産性" localSheetId="0">#REF!</definedName>
     <definedName name="工程別生産性">#REF!</definedName>
+    <definedName name="日帰り" localSheetId="0">#REF!</definedName>
     <definedName name="日帰り">#REF!</definedName>
+    <definedName name="日帰り単金" localSheetId="0">#REF!</definedName>
     <definedName name="日帰り単金">#REF!</definedName>
+    <definedName name="概要_基準日設定" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
     <definedName name="標準価格">'[4]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
-    <definedName name="機種SORT">[15]!機種SORT</definedName>
+    <definedName name="機種SORT" localSheetId="0">[15]!機種SORT</definedName>
+    <definedName name="機種SORT">[16]!機種SORT</definedName>
+    <definedName name="機能別原価" localSheetId="0">#REF!</definedName>
     <definedName name="機能別原価">#REF!</definedName>
+    <definedName name="画面1" localSheetId="0">#REF!</definedName>
     <definedName name="画面1">#REF!</definedName>
+    <definedName name="画面2" localSheetId="0">#REF!</definedName>
     <definedName name="画面2">#REF!</definedName>
+    <definedName name="画面３" localSheetId="0">#REF!</definedName>
     <definedName name="画面３">#REF!</definedName>
+    <definedName name="画面4" localSheetId="0">#REF!</definedName>
     <definedName name="画面4">#REF!</definedName>
+    <definedName name="画面5" localSheetId="0">#REF!</definedName>
     <definedName name="画面5">#REF!</definedName>
+    <definedName name="画面6" localSheetId="0">#REF!</definedName>
     <definedName name="画面6">#REF!</definedName>
+    <definedName name="画面7" localSheetId="0">#REF!</definedName>
     <definedName name="画面7">#REF!</definedName>
     <definedName name="直扱単価">'[4]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
     <definedName name="社共単価">'[4]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
+    <definedName name="種別" localSheetId="0">#REF!</definedName>
     <definedName name="種別">#REF!</definedName>
-    <definedName name="終了">[16]!終了</definedName>
+    <definedName name="終了">[17]!終了</definedName>
     <definedName name="見やすく">[13]!見やすく</definedName>
+    <definedName name="見積工数" localSheetId="0">#REF!</definedName>
     <definedName name="見積工数">#REF!</definedName>
     <definedName name="解析">#N/A</definedName>
     <definedName name="設計書">#N/A</definedName>
     <definedName name="部">'[4]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
+    <definedName name="部門別時間外労働手当状況" localSheetId="0">#REF!</definedName>
     <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="銀行の登録48" localSheetId="0">#REF!</definedName>
     <definedName name="銀行の登録48">#REF!</definedName>
+    <definedName name="銀行の登録67" localSheetId="0">#REF!</definedName>
     <definedName name="銀行の登録67">#REF!</definedName>
+    <definedName name="銀行の登録7" localSheetId="0">#REF!</definedName>
     <definedName name="銀行の登録7">#REF!</definedName>
+    <definedName name="関連表" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
+    <definedName name="電車" localSheetId="0">#REF!</definedName>
     <definedName name="電車">#REF!</definedName>
+    <definedName name="項目名の登録1" localSheetId="0">#REF!</definedName>
     <definedName name="項目名の登録1">#REF!</definedName>
+    <definedName name="項目名の登録2" localSheetId="0">#REF!</definedName>
     <definedName name="項目名の登録2">#REF!</definedName>
+    <definedName name="項目名の登録3" localSheetId="0">#REF!</definedName>
     <definedName name="項目名の登録3">#REF!</definedName>
+    <definedName name="項目名の登録4" localSheetId="0">#REF!</definedName>
     <definedName name="項目名の登録4">#REF!</definedName>
+    <definedName name="項目名の登録5" localSheetId="0">#REF!</definedName>
     <definedName name="項目名の登録5">#REF!</definedName>
+    <definedName name="項目名の登録6" localSheetId="0">#REF!</definedName>
     <definedName name="項目名の登録6">#REF!</definedName>
+    <definedName name="項目名の登録7" localSheetId="0">#REF!</definedName>
     <definedName name="項目名の登録7">#REF!</definedName>
+    <definedName name="項目名の登録8" localSheetId="0">#REF!</definedName>
     <definedName name="項目名の登録8">#REF!</definedName>
+    <definedName name="飛行機" localSheetId="0">#REF!</definedName>
     <definedName name="飛行機">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -344,25 +466,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -376,14 +486,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -414,16 +533,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>147844</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>156884</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1184901</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>20732</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -432,8 +551,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="168089" y="147844"/>
-          <a:ext cx="4389782" cy="5733563"/>
+          <a:off x="156884" y="154569"/>
+          <a:ext cx="5704792" cy="6362213"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -479,13 +598,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>11205</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
+      <xdr:colOff>19488</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -496,8 +615,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4752975" y="152400"/>
-          <a:ext cx="4389783" cy="5819775"/>
+          <a:off x="6069105" y="152400"/>
+          <a:ext cx="5694708" cy="6334125"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -550,10 +669,10 @@
     <xdr:ext cx="184731" cy="233205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 1">
+        <xdr:cNvPr id="10" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -561,7 +680,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4752975" y="152400"/>
+          <a:off x="6057900" y="152400"/>
           <a:ext cx="184731" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -609,10 +728,10 @@
     <xdr:ext cx="184731" cy="233205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 1">
+        <xdr:cNvPr id="11" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -620,7 +739,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="152400"/>
+          <a:off x="6572250" y="152400"/>
           <a:ext cx="184731" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -668,10 +787,10 @@
     <xdr:ext cx="184731" cy="233205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 1">
+        <xdr:cNvPr id="12" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -679,7 +798,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7934325" y="152400"/>
+          <a:off x="10572750" y="152400"/>
           <a:ext cx="184731" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -727,10 +846,10 @@
     <xdr:ext cx="184731" cy="233205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 1">
+        <xdr:cNvPr id="13" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -738,7 +857,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4752975" y="323850"/>
+          <a:off x="6057900" y="323850"/>
           <a:ext cx="184731" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -786,10 +905,10 @@
     <xdr:ext cx="184731" cy="233205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 1">
+        <xdr:cNvPr id="14" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -797,7 +916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="323850"/>
+          <a:off x="6572250" y="323850"/>
           <a:ext cx="184731" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -845,10 +964,10 @@
     <xdr:ext cx="184731" cy="233205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 1">
+        <xdr:cNvPr id="15" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -856,7 +975,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7934325" y="323850"/>
+          <a:off x="10572750" y="323850"/>
           <a:ext cx="184731" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -904,10 +1023,10 @@
     <xdr:ext cx="184731" cy="233205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="テキスト ボックス 1">
+        <xdr:cNvPr id="16" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,7 +1034,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4752975" y="152400"/>
+          <a:off x="6057900" y="495300"/>
           <a:ext cx="184731" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -963,10 +1082,10 @@
     <xdr:ext cx="184731" cy="233205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="テキスト ボックス 1">
+        <xdr:cNvPr id="17" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,7 +1093,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4752975" y="323850"/>
+          <a:off x="6057900" y="666750"/>
           <a:ext cx="184731" cy="233205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6550,6 +6669,24 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="画面イメージ(振込一覧表） (2)"/>
+      <sheetName val="アコーディオン画面"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="機種SORT" refersTo="#REF!"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -44610,340 +44747,341 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="1.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="1.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.5703125" style="1"/>
+    <col min="11" max="12" width="10.5703125" style="1"/>
+    <col min="13" max="13" width="2.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="12"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="3"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="12"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="12"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="3"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="12"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="3"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="12"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="2"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="12"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="2"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="12"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="2"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="3"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="11"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="2"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="3"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="2:8" ht="13.9" customHeight="1">
-      <c r="E39" s="10"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="2:8" ht="13.9" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
@@ -534,13 +534,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>156884</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1184901</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8844</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>20732</xdr:rowOff>
     </xdr:to>
@@ -551,8 +551,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="156884" y="154569"/>
-          <a:ext cx="5704792" cy="6362213"/>
+          <a:off x="381000" y="159051"/>
+          <a:ext cx="5410079" cy="6237828"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -598,15 +598,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19488</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -615,8 +615,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6069105" y="152400"/>
-          <a:ext cx="5694708" cy="6334125"/>
+          <a:off x="5972735" y="156882"/>
+          <a:ext cx="5409518" cy="6241677"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -44747,13 +44747,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" style="12" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="7" customWidth="1"/>
@@ -44761,7 +44761,7 @@
     <col min="6" max="6" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="57" style="12" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="1.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
     <col min="11" max="12" width="10.5703125" style="1"/>
     <col min="13" max="13" width="2.85546875" style="1" customWidth="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
@@ -659,478 +659,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="233205"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6057900" y="152400"/>
-          <a:ext cx="184731" cy="233205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="233205"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6572250" y="152400"/>
-          <a:ext cx="184731" cy="233205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="233205"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10572750" y="152400"/>
-          <a:ext cx="184731" cy="233205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="233205"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6057900" y="323850"/>
-          <a:ext cx="184731" cy="233205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="233205"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6572250" y="323850"/>
-          <a:ext cx="184731" cy="233205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="233205"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10572750" y="323850"/>
-          <a:ext cx="184731" cy="233205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="233205"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6057900" y="495300"/>
-          <a:ext cx="184731" cy="233205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="233205"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6057900" y="666750"/>
-          <a:ext cx="184731" cy="233205"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -44747,8 +44275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="12"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
@@ -432,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -455,6 +455,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="6" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -466,21 +633,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -495,14 +650,59 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -527,139 +727,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2169</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>8844</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>20732</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="381000" y="159051"/>
-          <a:ext cx="5410079" cy="6237828"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 1017"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19488</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5972735" y="156882"/>
-          <a:ext cx="5409518" cy="6241677"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 1017"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44273,22 +44340,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57" style="12" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="2.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
     <col min="11" max="12" width="10.5703125" style="1"/>
@@ -44296,325 +44361,405 @@
     <col min="14" max="16384" width="10.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="1:8" ht="12.75" thickBot="1">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="19"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B3" s="10"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="2"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="2"/>
+    <row r="3" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B4" s="11"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="3"/>
+    <row r="4" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B5" s="10"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="2"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="2"/>
+    <row r="5" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B6" s="11"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="3"/>
+    <row r="6" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B7" s="10"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="2"/>
+    <row r="7" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="3"/>
+    <row r="8" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="2"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="2"/>
+    <row r="9" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="3"/>
+    <row r="10" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="2"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="2"/>
+    <row r="11" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="3"/>
+    <row r="12" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B13" s="10"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="2"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="2"/>
+    <row r="13" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B14" s="11"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="3"/>
+    <row r="14" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B15" s="10"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="2"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="2"/>
+    <row r="15" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B16" s="11"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="3"/>
+    <row r="16" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B17" s="10"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="2"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="2"/>
+    <row r="17" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B18" s="11"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="3"/>
+    <row r="18" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="2"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="2"/>
+    <row r="19" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B20" s="11"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="3"/>
+    <row r="20" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B21" s="10"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="2"/>
+    <row r="21" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B22" s="11"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="3"/>
+    <row r="22" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B23" s="10"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="2"/>
+    <row r="23" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B24" s="11"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="3"/>
+    <row r="24" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B25" s="10"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="2"/>
+    <row r="25" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B26" s="11"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="3"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="3"/>
+    <row r="26" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B27" s="10"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="2"/>
+    <row r="27" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B28" s="11"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="3"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="3"/>
+    <row r="28" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B29" s="10"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="2"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="2"/>
+    <row r="29" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A29" s="9"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B30" s="11"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="3"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="3"/>
+    <row r="30" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="2"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="2"/>
+    <row r="31" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A31" s="9"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B32" s="11"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="3"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="3"/>
+    <row r="32" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="2"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="2"/>
+    <row r="33" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A33" s="9"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B34" s="11"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="3"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="3"/>
+    <row r="34" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="2"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="2"/>
+    <row r="35" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A35" s="9"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B36" s="11"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="3"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="3"/>
+    <row r="36" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="2"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="2"/>
+    <row r="37" spans="1:8" ht="13.9" customHeight="1">
+      <c r="A37" s="9"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="2:8" ht="13.9" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="3"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="3"/>
+    <row r="38" spans="1:8" ht="13.9" customHeight="1" thickBot="1">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="14"/>
     </row>
-    <row r="39" spans="2:8" ht="13.9" customHeight="1">
-      <c r="E39" s="6"/>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" thickTop="1">
+      <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:8" ht="13.9" customHeight="1"/>
+    <row r="40" spans="1:8" ht="13.9" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="39" max="8" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="マスタリスト" sheetId="2" r:id="rId1"/>
@@ -46,8 +46,8 @@
     <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。" localSheetId="0">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
-    <definedName name="a" localSheetId="0">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="a" localSheetId="0">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
     <definedName name="AAA" localSheetId="0">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
     <definedName name="AAAA" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
@@ -111,8 +111,8 @@
     <definedName name="ＭＨ">#REF!</definedName>
     <definedName name="Ｍホ" localSheetId="0">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
-    <definedName name="ｎ" localSheetId="0">'[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="ｎ">'[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="ｎ" localSheetId="0">[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ">[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
     <definedName name="ＯＨ" localSheetId="0">#REF!</definedName>
     <definedName name="ＯＨ">#REF!</definedName>
     <definedName name="OPT_NO">[7]!OPT_NO</definedName>
@@ -169,10 +169,10 @@
     <definedName name="クニホ">#REF!</definedName>
     <definedName name="クホ" localSheetId="0">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
-    <definedName name="サＨ" localSheetId="0">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サＨ">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ" localSheetId="0">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サＨ" localSheetId="0">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ" localSheetId="0">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サホ">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
     <definedName name="サホ1" localSheetId="0">#REF!</definedName>
     <definedName name="サホ1">#REF!</definedName>
     <definedName name="ツール別見積工数" localSheetId="0">#REF!</definedName>
@@ -343,7 +343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM023.xlsx
@@ -46,8 +46,8 @@
     <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。" localSheetId="0">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
-    <definedName name="a" localSheetId="0">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="a">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a" localSheetId="0">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="AAA" localSheetId="0">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
     <definedName name="AAAA" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
@@ -68,12 +68,12 @@
     <definedName name="ｃｃｃｃ" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="ｃｃｃｃ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="CULC.cal_index_size">[3]!CULC.cal_index_size</definedName>
-    <definedName name="C保守単価" localSheetId="0">'[4]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価" localSheetId="0">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価" localSheetId="0">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守単価" localSheetId="0">'[4]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="DDDD" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="DDDD" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="def" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -111,8 +111,8 @@
     <definedName name="ＭＨ">#REF!</definedName>
     <definedName name="Ｍホ" localSheetId="0">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
-    <definedName name="ｎ" localSheetId="0">[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="ｎ">[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ" localSheetId="0">'[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="ｎ">'[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="ＯＨ" localSheetId="0">#REF!</definedName>
     <definedName name="ＯＨ">#REF!</definedName>
     <definedName name="OPT_NO">[7]!OPT_NO</definedName>
@@ -169,10 +169,10 @@
     <definedName name="クニホ">#REF!</definedName>
     <definedName name="クホ" localSheetId="0">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
-    <definedName name="サＨ" localSheetId="0">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="サＨ">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="サホ" localSheetId="0">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="サホ">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ" localSheetId="0">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サＨ">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サホ" localSheetId="0">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サホ">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サホ1" localSheetId="0">#REF!</definedName>
     <definedName name="サホ1">#REF!</definedName>
     <definedName name="ツール別見積工数" localSheetId="0">#REF!</definedName>
@@ -202,51 +202,9 @@
     <definedName name="ワイドに">[13]!ワイドに</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ" localSheetId="0">#REF!</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ">#REF!</definedName>
-    <definedName name="人日原価" localSheetId="0">#REF!</definedName>
-    <definedName name="人日原価">#REF!</definedName>
-    <definedName name="仕切り">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="仕切単価">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="住民税115" localSheetId="0">#REF!</definedName>
-    <definedName name="住民税115">#REF!</definedName>
-    <definedName name="住民税96" localSheetId="0">#REF!</definedName>
-    <definedName name="住民税96">#REF!</definedName>
-    <definedName name="住民税納付先の登録7" localSheetId="0">#REF!</definedName>
-    <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="印刷">[14]!印刷</definedName>
     <definedName name="価格表" localSheetId="0">#REF!</definedName>
     <definedName name="価格表">#REF!</definedName>
-    <definedName name="保守単価">'[4]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
-    <definedName name="保守委託単価">'[4]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
-    <definedName name="保守支援単価">'[4]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
-    <definedName name="値引単価">'[4]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
-    <definedName name="備考">'[4]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
-    <definedName name="単価" localSheetId="0">#REF!</definedName>
-    <definedName name="単価">#REF!</definedName>
-    <definedName name="単価種別" localSheetId="0">#REF!</definedName>
-    <definedName name="単価種別">#REF!</definedName>
-    <definedName name="印刷">[14]!印刷</definedName>
-    <definedName name="原価" localSheetId="0">#REF!</definedName>
-    <definedName name="原価">#REF!</definedName>
-    <definedName name="売値" localSheetId="0">#REF!</definedName>
-    <definedName name="売値">#REF!</definedName>
-    <definedName name="定価" localSheetId="0">#REF!</definedName>
-    <definedName name="定価">#REF!</definedName>
-    <definedName name="宿泊" localSheetId="0">#REF!</definedName>
-    <definedName name="宿泊">#REF!</definedName>
-    <definedName name="宿泊単金" localSheetId="0">#REF!</definedName>
-    <definedName name="宿泊単金">#REF!</definedName>
-    <definedName name="工程別生産性" localSheetId="0">#REF!</definedName>
-    <definedName name="工程別生産性">#REF!</definedName>
-    <definedName name="日帰り" localSheetId="0">#REF!</definedName>
-    <definedName name="日帰り">#REF!</definedName>
-    <definedName name="日帰り単金" localSheetId="0">#REF!</definedName>
-    <definedName name="日帰り単金">#REF!</definedName>
-    <definedName name="概要_基準日設定" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
-    <definedName name="標準価格">'[4]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
-    <definedName name="機種SORT" localSheetId="0">[15]!機種SORT</definedName>
-    <definedName name="機種SORT">[16]!機種SORT</definedName>
-    <definedName name="機能別原価" localSheetId="0">#REF!</definedName>
-    <definedName name="機能別原価">#REF!</definedName>
     <definedName name="画面1" localSheetId="0">#REF!</definedName>
     <definedName name="画面1">#REF!</definedName>
     <definedName name="画面2" localSheetId="0">#REF!</definedName>
@@ -261,29 +219,28 @@
     <definedName name="画面6">#REF!</definedName>
     <definedName name="画面7" localSheetId="0">#REF!</definedName>
     <definedName name="画面7">#REF!</definedName>
-    <definedName name="直扱単価">'[4]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
-    <definedName name="社共単価">'[4]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
-    <definedName name="種別" localSheetId="0">#REF!</definedName>
-    <definedName name="種別">#REF!</definedName>
-    <definedName name="終了">[17]!終了</definedName>
-    <definedName name="見やすく">[13]!見やすく</definedName>
-    <definedName name="見積工数" localSheetId="0">#REF!</definedName>
-    <definedName name="見積工数">#REF!</definedName>
     <definedName name="解析">#N/A</definedName>
-    <definedName name="設計書">#N/A</definedName>
-    <definedName name="部">'[4]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
-    <definedName name="部門別時間外労働手当状況" localSheetId="0">#REF!</definedName>
-    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="概要_基準日設定" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="関連表" hidden="1">#REF!</definedName>
+    <definedName name="機種SORT" localSheetId="0">[15]!機種SORT</definedName>
+    <definedName name="機種SORT">[16]!機種SORT</definedName>
+    <definedName name="機能別原価" localSheetId="0">#REF!</definedName>
+    <definedName name="機能別原価">#REF!</definedName>
     <definedName name="銀行の登録48" localSheetId="0">#REF!</definedName>
     <definedName name="銀行の登録48">#REF!</definedName>
     <definedName name="銀行の登録67" localSheetId="0">#REF!</definedName>
     <definedName name="銀行の登録67">#REF!</definedName>
     <definedName name="銀行の登録7" localSheetId="0">#REF!</definedName>
     <definedName name="銀行の登録7">#REF!</definedName>
-    <definedName name="関連表" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="電車" localSheetId="0">#REF!</definedName>
-    <definedName name="電車">#REF!</definedName>
+    <definedName name="見やすく">[13]!見やすく</definedName>
+    <definedName name="見積工数" localSheetId="0">#REF!</definedName>
+    <definedName name="見積工数">#REF!</definedName>
+    <definedName name="原価" localSheetId="0">#REF!</definedName>
+    <definedName name="原価">#REF!</definedName>
+    <definedName name="工程別生産性" localSheetId="0">#REF!</definedName>
+    <definedName name="工程別生産性">#REF!</definedName>
     <definedName name="項目名の登録1" localSheetId="0">#REF!</definedName>
     <definedName name="項目名の登録1">#REF!</definedName>
     <definedName name="項目名の登録2" localSheetId="0">#REF!</definedName>
@@ -300,8 +257,51 @@
     <definedName name="項目名の登録7">#REF!</definedName>
     <definedName name="項目名の登録8" localSheetId="0">#REF!</definedName>
     <definedName name="項目名の登録8">#REF!</definedName>
+    <definedName name="仕切り">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="仕切単価">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="社共単価">'[4]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
+    <definedName name="種別" localSheetId="0">#REF!</definedName>
+    <definedName name="種別">#REF!</definedName>
+    <definedName name="終了">[17]!終了</definedName>
+    <definedName name="住民税115" localSheetId="0">#REF!</definedName>
+    <definedName name="住民税115">#REF!</definedName>
+    <definedName name="住民税96" localSheetId="0">#REF!</definedName>
+    <definedName name="住民税96">#REF!</definedName>
+    <definedName name="住民税納付先の登録7" localSheetId="0">#REF!</definedName>
+    <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="宿泊" localSheetId="0">#REF!</definedName>
+    <definedName name="宿泊">#REF!</definedName>
+    <definedName name="宿泊単金" localSheetId="0">#REF!</definedName>
+    <definedName name="宿泊単金">#REF!</definedName>
+    <definedName name="人日原価" localSheetId="0">#REF!</definedName>
+    <definedName name="人日原価">#REF!</definedName>
+    <definedName name="設計書">#N/A</definedName>
+    <definedName name="単価" localSheetId="0">#REF!</definedName>
+    <definedName name="単価">#REF!</definedName>
+    <definedName name="単価種別" localSheetId="0">#REF!</definedName>
+    <definedName name="単価種別">#REF!</definedName>
+    <definedName name="値引単価">'[4]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
+    <definedName name="直扱単価">'[4]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
+    <definedName name="定価" localSheetId="0">#REF!</definedName>
+    <definedName name="定価">#REF!</definedName>
+    <definedName name="電車" localSheetId="0">#REF!</definedName>
+    <definedName name="電車">#REF!</definedName>
+    <definedName name="日帰り" localSheetId="0">#REF!</definedName>
+    <definedName name="日帰り">#REF!</definedName>
+    <definedName name="日帰り単金" localSheetId="0">#REF!</definedName>
+    <definedName name="日帰り単金">#REF!</definedName>
+    <definedName name="売値" localSheetId="0">#REF!</definedName>
+    <definedName name="売値">#REF!</definedName>
     <definedName name="飛行機" localSheetId="0">#REF!</definedName>
     <definedName name="飛行機">#REF!</definedName>
+    <definedName name="備考">'[4]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
+    <definedName name="標準価格">'[4]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
+    <definedName name="部">'[4]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
+    <definedName name="部門別時間外労働手当状況" localSheetId="0">#REF!</definedName>
+    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="保守委託単価">'[4]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
+    <definedName name="保守支援単価">'[4]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
+    <definedName name="保守単価">'[4]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -343,21 +343,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -378,7 +378,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -629,7 +629,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -668,13 +668,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -44344,24 +44344,24 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.5703125" style="1"/>
-    <col min="13" max="13" width="2.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.5703125" style="1"/>
+    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="2.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="2.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="1"/>
+    <col min="13" max="13" width="2.875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" thickBot="1">
+    <row r="1" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="19"/>
@@ -44369,7 +44369,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickTop="1">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9"/>
       <c r="B2" s="15" t="s">
         <v>4</v>
@@ -44391,7 +44391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.9" customHeight="1">
+    <row r="3" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="B3" s="7"/>
       <c r="C3" s="4"/>
@@ -44401,7 +44401,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="13.9" customHeight="1">
+    <row r="4" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="5"/>
@@ -44411,7 +44411,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="13.9" customHeight="1">
+    <row r="5" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="7"/>
       <c r="C5" s="4"/>
@@ -44421,7 +44421,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="13.9" customHeight="1">
+    <row r="6" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="8"/>
       <c r="C6" s="5"/>
@@ -44431,7 +44431,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" ht="13.9" customHeight="1">
+    <row r="7" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="4"/>
@@ -44441,7 +44441,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="13.9" customHeight="1">
+    <row r="8" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
       <c r="C8" s="5"/>
@@ -44451,7 +44451,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="13.9" customHeight="1">
+    <row r="9" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="4"/>
@@ -44461,7 +44461,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="13.9" customHeight="1">
+    <row r="10" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="8"/>
       <c r="C10" s="5"/>
@@ -44471,7 +44471,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="13.9" customHeight="1">
+    <row r="11" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="4"/>
@@ -44481,7 +44481,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="13.9" customHeight="1">
+    <row r="12" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" s="5"/>
@@ -44491,7 +44491,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="13.9" customHeight="1">
+    <row r="13" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="4"/>
@@ -44501,7 +44501,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="13.9" customHeight="1">
+    <row r="14" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="5"/>
@@ -44511,7 +44511,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="13.9" customHeight="1">
+    <row r="15" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="4"/>
@@ -44521,7 +44521,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" ht="13.9" customHeight="1">
+    <row r="16" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
       <c r="C16" s="5"/>
@@ -44531,7 +44531,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="13.9" customHeight="1">
+    <row r="17" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" s="4"/>
@@ -44541,7 +44541,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="13.9" customHeight="1">
+    <row r="18" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
       <c r="C18" s="5"/>
@@ -44551,7 +44551,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="13.9" customHeight="1">
+    <row r="19" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="7"/>
       <c r="C19" s="4"/>
@@ -44561,7 +44561,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="13.9" customHeight="1">
+    <row r="20" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="8"/>
       <c r="C20" s="5"/>
@@ -44571,7 +44571,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="13.9" customHeight="1">
+    <row r="21" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="7"/>
       <c r="C21" s="4"/>
@@ -44581,7 +44581,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" ht="13.9" customHeight="1">
+    <row r="22" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="5"/>
@@ -44591,7 +44591,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="13.9" customHeight="1">
+    <row r="23" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
       <c r="B23" s="7"/>
       <c r="C23" s="4"/>
@@ -44601,7 +44601,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" ht="13.9" customHeight="1">
+    <row r="24" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
@@ -44611,7 +44611,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="13.9" customHeight="1">
+    <row r="25" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" s="4"/>
@@ -44621,7 +44621,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="13.9" customHeight="1">
+    <row r="26" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
       <c r="C26" s="5"/>
@@ -44631,7 +44631,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" ht="13.9" customHeight="1">
+    <row r="27" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="7"/>
       <c r="C27" s="4"/>
@@ -44641,7 +44641,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="13.9" customHeight="1">
+    <row r="28" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="8"/>
       <c r="C28" s="5"/>
@@ -44651,7 +44651,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" ht="13.9" customHeight="1">
+    <row r="29" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="7"/>
       <c r="C29" s="4"/>
@@ -44661,7 +44661,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="13.9" customHeight="1">
+    <row r="30" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
       <c r="C30" s="5"/>
@@ -44671,7 +44671,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" ht="13.9" customHeight="1">
+    <row r="31" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
       <c r="B31" s="7"/>
       <c r="C31" s="4"/>
@@ -44681,7 +44681,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" ht="13.9" customHeight="1">
+    <row r="32" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="5"/>
@@ -44691,7 +44691,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="13.9" customHeight="1">
+    <row r="33" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="7"/>
       <c r="C33" s="4"/>
@@ -44701,7 +44701,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" ht="13.9" customHeight="1">
+    <row r="34" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="8"/>
       <c r="C34" s="5"/>
@@ -44711,7 +44711,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="13.5" customHeight="1">
+    <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
       <c r="B35" s="7"/>
       <c r="C35" s="4"/>
@@ -44721,7 +44721,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" ht="13.9" customHeight="1">
+    <row r="36" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
       <c r="B36" s="8"/>
       <c r="C36" s="5"/>
@@ -44731,7 +44731,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="13.9" customHeight="1">
+    <row r="37" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
       <c r="B37" s="7"/>
       <c r="C37" s="4"/>
@@ -44741,7 +44741,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" ht="13.9" customHeight="1" thickBot="1">
+    <row r="38" spans="1:8" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
@@ -44751,13 +44751,14 @@
       <c r="G38" s="11"/>
       <c r="H38" s="14"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" thickTop="1">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="13.9" customHeight="1"/>
+    <row r="40" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="39" max="8" man="1"/>
   </rowBreaks>
